--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/Temporary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF216803-0AB9-C04B-8DEE-C5666C183EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F60BCC9-2E38-5649-A75F-A5C370BFA32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="534">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1558,42 +1558,15 @@
     <t>Sequence Number</t>
   </si>
   <si>
-    <t>Researcher</t>
-  </si>
-  <si>
-    <t>Peak Annotation Format</t>
-  </si>
-  <si>
-    <t>Sequence Date</t>
-  </si>
-  <si>
-    <t>LC Protocol Name</t>
-  </si>
-  <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>Researchers Confirmed</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>polar-HILIC-25-min</t>
-  </si>
-  <si>
     <t>2020-11-01</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>The default researcher will be used for both the animal owner and the LCMS Operator</t>
-  </si>
-  <si>
-    <t>Set to "True" after warnings about potential spelling variations are addressed</t>
-  </si>
-  <si>
     <t>The default format when not explicitly set in the Peak Annotations tab</t>
   </si>
   <si>
@@ -1603,18 +1576,9 @@
     <t>The default date when not explicitly set in the Sequences tab</t>
   </si>
   <si>
-    <t>The default LC protocol when not explicitly set in the Sequences tab (note, this can only be used for existing protocols - novel protocols must be fully defined in the Sequences tab)</t>
-  </si>
-  <si>
     <t>Default instrument when not explicitly set in the Sequences tab</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1649,6 +1613,39 @@
   </si>
   <si>
     <t>isoleucine-[13C6,15N1]</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Column Header</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>The default researcher will be used for both the animal owner</t>
+  </si>
+  <si>
+    <t>The default researcher will be used for both the LCMS Operator</t>
+  </si>
+  <si>
+    <t>Peak Annotation Files</t>
+  </si>
+  <si>
+    <t>Peak Annotation Details</t>
+  </si>
+  <si>
+    <t>The default LC Protocol when not explicitly set in the Sequences tab</t>
+  </si>
+  <si>
+    <t>The default LC Run Length when not explicitly set in the Sequences tab</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1656,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1671,19 +1668,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1711,6 +1708,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1732,7 +1736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1760,6 +1764,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2158,7 +2163,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>213</v>
@@ -5355,7 +5360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5391,7 +5398,7 @@
         <v>502</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -5461,103 +5468,142 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="69.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>521</v>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="15">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>510</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -5569,7 +5615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8971,7 +9017,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9012,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -22678,7 +22724,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22726,13 +22772,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -22743,13 +22789,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22760,13 +22806,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22814,7 +22860,7 @@
         <v>268</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22905,7 +22951,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>271</v>
@@ -22917,7 +22963,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22925,7 +22971,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>272</v>
@@ -22937,7 +22983,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22945,7 +22991,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>271</v>
@@ -22957,7 +23003,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -22965,7 +23011,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>272</v>
@@ -22977,7 +23023,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -22985,7 +23031,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>271</v>
@@ -22997,7 +23043,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -23005,7 +23051,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>272</v>
@@ -23017,7 +23063,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -23269,7 +23315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23286,7 +23334,7 @@
         <v>333</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F60BCC9-2E38-5649-A75F-A5C370BFA32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E57F397-0D7C-4945-BA1B-2FB60076D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -31,9 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="534">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1851,9 +1854,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1891,7 +1894,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1997,7 +2000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2139,7 +2142,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2147,45 +2150,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1CB6C-4DC0-0447-B275-8BB498789B61}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>258</v>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C1" s="14" t="s">
         <v>213</v>
       </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5470,7 +5466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>

--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E57F397-0D7C-4945-BA1B-2FB60076D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6659D49-9E27-C947-AF06-081E76E76119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId9"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId10"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId11"/>
+    <sheet name="MS Runs" sheetId="10" r:id="rId11"/>
     <sheet name="Defaults" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="528">
   <si>
     <t>Animal ID</t>
   </si>
@@ -838,9 +838,6 @@
     <t>Tracer Concentration</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Tracer Number</t>
   </si>
   <si>
@@ -1060,9 +1057,6 @@
     <t>LC Protocol</t>
   </si>
   <si>
-    <t>LC Run Length</t>
-  </si>
-  <si>
     <t>xzl1_brain.mzXML</t>
   </si>
   <si>
@@ -1549,18 +1543,9 @@
     <t>HILIC</t>
   </si>
   <si>
-    <t>polar-HILIC</t>
-  </si>
-  <si>
     <t>Polarity</t>
   </si>
   <si>
-    <t>LC Description</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
     <t>Skip</t>
   </si>
   <si>
@@ -1573,24 +1558,12 @@
     <t>The default format when not explicitly set in the Peak Annotations tab</t>
   </si>
   <si>
-    <t>The default polarity when not explicitly set in the Sequences tab</t>
-  </si>
-  <si>
-    <t>The default date when not explicitly set in the Sequences tab</t>
-  </si>
-  <si>
-    <t>Default instrument when not explicitly set in the Sequences tab</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Sample Name Prefix</t>
-  </si>
-  <si>
     <t>BCAAs (VLI) {valine-[13C5,15N1]; leucine-[13C6,15N1]; isoleucine-[13C6,15N1]}</t>
   </si>
   <si>
@@ -1630,9 +1603,6 @@
     <t>Samples</t>
   </si>
   <si>
-    <t>Sequences</t>
-  </si>
-  <si>
     <t>The default researcher will be used for both the animal owner</t>
   </si>
   <si>
@@ -1642,13 +1612,25 @@
     <t>Peak Annotation Files</t>
   </si>
   <si>
-    <t>Peak Annotation Details</t>
-  </si>
-  <si>
-    <t>The default LC Protocol when not explicitly set in the Sequences tab</t>
-  </si>
-  <si>
-    <t>The default LC Run Length when not explicitly set in the Sequences tab</t>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
+  </si>
+  <si>
+    <t>polar-HILIC-25-min</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>MS Runs</t>
+  </si>
+  <si>
+    <t>The default date when not explicitly set in the MS Runs tab</t>
+  </si>
+  <si>
+    <t>The default LC Protocol when not explicitly set in the MS Runs tab</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1CB6C-4DC0-0447-B275-8BB498789B61}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2162,7 +2144,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>213</v>
@@ -2194,7 +2176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F157"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2211,19 +2195,19 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>503</v>
+        <v>498</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="L1" s="14"/>
     </row>
@@ -2235,16 +2219,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2255,16 +2236,13 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2275,16 +2253,13 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2295,16 +2270,13 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2315,16 +2287,13 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2335,16 +2304,13 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2355,16 +2321,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2375,16 +2338,13 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2395,16 +2355,13 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2415,16 +2372,13 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2435,16 +2389,13 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2455,16 +2406,13 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E13" t="s">
-        <v>498</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2475,16 +2423,13 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2495,16 +2440,13 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2515,19 +2457,16 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -2535,19 +2474,16 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -2555,19 +2491,16 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -2575,19 +2508,16 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2595,19 +2525,16 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E20" t="s">
-        <v>498</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -2615,19 +2542,16 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -2635,19 +2559,16 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E22" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -2655,19 +2576,16 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E23" t="s">
-        <v>498</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -2675,19 +2593,16 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
@@ -2695,19 +2610,16 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E25" t="s">
-        <v>498</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2715,19 +2627,16 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E26" t="s">
-        <v>498</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
@@ -2735,19 +2644,16 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -2755,19 +2661,16 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E28" t="s">
-        <v>498</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
@@ -2775,19 +2678,16 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E29" t="s">
-        <v>498</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2795,19 +2695,16 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E30" t="s">
-        <v>498</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
@@ -2815,19 +2712,16 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -2835,19 +2729,16 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E32" t="s">
-        <v>498</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
@@ -2855,19 +2746,16 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E33" t="s">
-        <v>498</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -2875,19 +2763,16 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E34" t="s">
-        <v>498</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2895,19 +2780,16 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E35" t="s">
-        <v>498</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
@@ -2915,19 +2797,16 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E36" t="s">
-        <v>498</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -2935,19 +2814,16 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E37" t="s">
-        <v>498</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -2955,19 +2831,16 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D38" t="s">
+        <v>494</v>
+      </c>
+      <c r="E38" t="s">
         <v>496</v>
       </c>
-      <c r="E38" t="s">
-        <v>498</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -2975,19 +2848,16 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D39" t="s">
+        <v>494</v>
+      </c>
+      <c r="E39" t="s">
         <v>496</v>
       </c>
-      <c r="E39" t="s">
-        <v>498</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
@@ -2995,19 +2865,16 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
+        <v>494</v>
+      </c>
+      <c r="E40" t="s">
         <v>496</v>
       </c>
-      <c r="E40" t="s">
-        <v>498</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
@@ -3015,19 +2882,16 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D41" t="s">
+        <v>494</v>
+      </c>
+      <c r="E41" t="s">
         <v>496</v>
       </c>
-      <c r="E41" t="s">
-        <v>498</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
@@ -3035,19 +2899,16 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
+        <v>494</v>
+      </c>
+      <c r="E42" t="s">
         <v>496</v>
       </c>
-      <c r="E42" t="s">
-        <v>498</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>92</v>
       </c>
@@ -3055,19 +2916,16 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D43" t="s">
+        <v>494</v>
+      </c>
+      <c r="E43" t="s">
         <v>496</v>
       </c>
-      <c r="E43" t="s">
-        <v>498</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
@@ -3075,19 +2933,16 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
+        <v>494</v>
+      </c>
+      <c r="E44" t="s">
         <v>496</v>
       </c>
-      <c r="E44" t="s">
-        <v>498</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
@@ -3095,19 +2950,16 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
+        <v>494</v>
+      </c>
+      <c r="E45" t="s">
         <v>496</v>
       </c>
-      <c r="E45" t="s">
-        <v>498</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>95</v>
       </c>
@@ -3115,19 +2967,16 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s">
+        <v>494</v>
+      </c>
+      <c r="E46" t="s">
         <v>496</v>
       </c>
-      <c r="E46" t="s">
-        <v>498</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -3135,19 +2984,16 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D47" t="s">
+        <v>494</v>
+      </c>
+      <c r="E47" t="s">
         <v>496</v>
       </c>
-      <c r="E47" t="s">
-        <v>498</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -3155,19 +3001,16 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" t="s">
         <v>496</v>
       </c>
-      <c r="E48" t="s">
-        <v>498</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>98</v>
       </c>
@@ -3175,19 +3018,16 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D49" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" t="s">
         <v>496</v>
       </c>
-      <c r="E49" t="s">
-        <v>498</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -3195,19 +3035,16 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D50" t="s">
+        <v>494</v>
+      </c>
+      <c r="E50" t="s">
         <v>496</v>
       </c>
-      <c r="E50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
@@ -3215,19 +3052,16 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
+        <v>494</v>
+      </c>
+      <c r="E51" t="s">
         <v>496</v>
       </c>
-      <c r="E51" t="s">
-        <v>498</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
@@ -3235,19 +3069,16 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D52" t="s">
+        <v>494</v>
+      </c>
+      <c r="E52" t="s">
         <v>496</v>
       </c>
-      <c r="E52" t="s">
-        <v>498</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>102</v>
       </c>
@@ -3255,19 +3086,16 @@
         <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D53" t="s">
+        <v>494</v>
+      </c>
+      <c r="E53" t="s">
         <v>496</v>
       </c>
-      <c r="E53" t="s">
-        <v>498</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>103</v>
       </c>
@@ -3275,19 +3103,16 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D54" t="s">
+        <v>494</v>
+      </c>
+      <c r="E54" t="s">
         <v>496</v>
       </c>
-      <c r="E54" t="s">
-        <v>498</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>104</v>
       </c>
@@ -3295,19 +3120,16 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D55" t="s">
+        <v>494</v>
+      </c>
+      <c r="E55" t="s">
         <v>496</v>
       </c>
-      <c r="E55" t="s">
-        <v>498</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -3315,19 +3137,16 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D56" t="s">
+        <v>494</v>
+      </c>
+      <c r="E56" t="s">
         <v>496</v>
       </c>
-      <c r="E56" t="s">
-        <v>498</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>106</v>
       </c>
@@ -3335,19 +3154,16 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D57" t="s">
+        <v>494</v>
+      </c>
+      <c r="E57" t="s">
         <v>496</v>
       </c>
-      <c r="E57" t="s">
-        <v>498</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>107</v>
       </c>
@@ -3355,19 +3171,16 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E58" t="s">
         <v>496</v>
       </c>
-      <c r="E58" t="s">
-        <v>498</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
@@ -3375,19 +3188,16 @@
         <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D59" t="s">
+        <v>494</v>
+      </c>
+      <c r="E59" t="s">
         <v>496</v>
       </c>
-      <c r="E59" t="s">
-        <v>498</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>109</v>
       </c>
@@ -3395,19 +3205,16 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D60" t="s">
+        <v>494</v>
+      </c>
+      <c r="E60" t="s">
         <v>496</v>
       </c>
-      <c r="E60" t="s">
-        <v>498</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -3415,19 +3222,16 @@
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D61" t="s">
+        <v>494</v>
+      </c>
+      <c r="E61" t="s">
         <v>496</v>
       </c>
-      <c r="E61" t="s">
-        <v>498</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>111</v>
       </c>
@@ -3435,19 +3239,16 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D62" t="s">
+        <v>494</v>
+      </c>
+      <c r="E62" t="s">
         <v>496</v>
       </c>
-      <c r="E62" t="s">
-        <v>498</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>112</v>
       </c>
@@ -3455,19 +3256,16 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
+        <v>494</v>
+      </c>
+      <c r="E63" t="s">
         <v>496</v>
       </c>
-      <c r="E63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -3475,19 +3273,16 @@
         <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E64" t="s">
         <v>496</v>
       </c>
-      <c r="E64" t="s">
-        <v>498</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>114</v>
       </c>
@@ -3495,19 +3290,16 @@
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
+        <v>494</v>
+      </c>
+      <c r="E65" t="s">
         <v>496</v>
       </c>
-      <c r="E65" t="s">
-        <v>498</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>115</v>
       </c>
@@ -3515,19 +3307,16 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
+        <v>494</v>
+      </c>
+      <c r="E66" t="s">
         <v>496</v>
       </c>
-      <c r="E66" t="s">
-        <v>498</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>116</v>
       </c>
@@ -3535,19 +3324,16 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D67" t="s">
+        <v>494</v>
+      </c>
+      <c r="E67" t="s">
         <v>496</v>
       </c>
-      <c r="E67" t="s">
-        <v>498</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
@@ -3555,19 +3341,16 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
+        <v>494</v>
+      </c>
+      <c r="E68" t="s">
         <v>496</v>
       </c>
-      <c r="E68" t="s">
-        <v>498</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>118</v>
       </c>
@@ -3575,19 +3358,16 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
+        <v>494</v>
+      </c>
+      <c r="E69" t="s">
         <v>496</v>
       </c>
-      <c r="E69" t="s">
-        <v>498</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
@@ -3595,19 +3375,16 @@
         <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D70" t="s">
+        <v>494</v>
+      </c>
+      <c r="E70" t="s">
         <v>496</v>
       </c>
-      <c r="E70" t="s">
-        <v>498</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>120</v>
       </c>
@@ -3615,19 +3392,16 @@
         <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
+        <v>494</v>
+      </c>
+      <c r="E71" t="s">
         <v>496</v>
       </c>
-      <c r="E71" t="s">
-        <v>498</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>121</v>
       </c>
@@ -3635,19 +3409,16 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D72" t="s">
+        <v>494</v>
+      </c>
+      <c r="E72" t="s">
         <v>496</v>
       </c>
-      <c r="E72" t="s">
-        <v>498</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -3655,19 +3426,16 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
+        <v>494</v>
+      </c>
+      <c r="E73" t="s">
         <v>496</v>
       </c>
-      <c r="E73" t="s">
-        <v>498</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -3675,19 +3443,16 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E74" t="s">
-        <v>498</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -3695,19 +3460,16 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E75" t="s">
-        <v>498</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>125</v>
       </c>
@@ -3715,19 +3477,16 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D76" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E76" t="s">
-        <v>498</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>126</v>
       </c>
@@ -3735,19 +3494,16 @@
         <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E77" t="s">
-        <v>498</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>127</v>
       </c>
@@ -3755,19 +3511,16 @@
         <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E78" t="s">
-        <v>498</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>128</v>
       </c>
@@ -3775,19 +3528,16 @@
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E79" t="s">
-        <v>498</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>129</v>
       </c>
@@ -3795,19 +3545,16 @@
         <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E80" t="s">
-        <v>498</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>130</v>
       </c>
@@ -3815,19 +3562,16 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D81" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E81" t="s">
-        <v>498</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>131</v>
       </c>
@@ -3835,19 +3579,16 @@
         <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E82" t="s">
-        <v>498</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
@@ -3855,19 +3596,16 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E83" t="s">
-        <v>498</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>133</v>
       </c>
@@ -3875,19 +3613,16 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D84" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>134</v>
       </c>
@@ -3895,19 +3630,16 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D85" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E85" t="s">
-        <v>498</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>135</v>
       </c>
@@ -3915,19 +3647,16 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D86" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>136</v>
       </c>
@@ -3935,19 +3664,16 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E87" t="s">
-        <v>498</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>137</v>
       </c>
@@ -3955,19 +3681,16 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E88" t="s">
-        <v>498</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>138</v>
       </c>
@@ -3975,19 +3698,16 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E89" t="s">
-        <v>498</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>139</v>
       </c>
@@ -3995,19 +3715,16 @@
         <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D90" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E90" t="s">
-        <v>498</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>140</v>
       </c>
@@ -4015,19 +3732,16 @@
         <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D91" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E91" t="s">
-        <v>498</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>141</v>
       </c>
@@ -4035,19 +3749,16 @@
         <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E92" t="s">
-        <v>498</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>142</v>
       </c>
@@ -4055,19 +3766,16 @@
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D93" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E93" t="s">
-        <v>498</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>143</v>
       </c>
@@ -4075,19 +3783,16 @@
         <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D94" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E94" t="s">
-        <v>498</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>144</v>
       </c>
@@ -4095,19 +3800,16 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D95" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E95" t="s">
-        <v>498</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>145</v>
       </c>
@@ -4115,19 +3817,16 @@
         <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D96" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E96" t="s">
-        <v>498</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>146</v>
       </c>
@@ -4135,19 +3834,16 @@
         <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D97" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E97" t="s">
-        <v>498</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>147</v>
       </c>
@@ -4155,19 +3851,16 @@
         <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D98" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E98" t="s">
-        <v>498</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>148</v>
       </c>
@@ -4175,19 +3868,16 @@
         <v>148</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E99" t="s">
-        <v>498</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>149</v>
       </c>
@@ -4195,19 +3885,16 @@
         <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D100" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E100" t="s">
-        <v>498</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>151</v>
       </c>
@@ -4215,19 +3902,16 @@
         <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D101" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E101" t="s">
-        <v>498</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>152</v>
       </c>
@@ -4235,19 +3919,16 @@
         <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E102" t="s">
-        <v>498</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>153</v>
       </c>
@@ -4255,19 +3936,16 @@
         <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D103" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E103" t="s">
-        <v>498</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>154</v>
       </c>
@@ -4275,19 +3953,16 @@
         <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D104" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E104" t="s">
-        <v>498</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>155</v>
       </c>
@@ -4295,19 +3970,16 @@
         <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D105" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E105" t="s">
-        <v>498</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>156</v>
       </c>
@@ -4315,19 +3987,16 @@
         <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D106" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E106" t="s">
-        <v>498</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>157</v>
       </c>
@@ -4335,19 +4004,16 @@
         <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D107" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E107" t="s">
-        <v>498</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>158</v>
       </c>
@@ -4355,19 +4021,16 @@
         <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E108" t="s">
-        <v>498</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>159</v>
       </c>
@@ -4375,19 +4038,16 @@
         <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D109" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E109" t="s">
-        <v>498</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>161</v>
       </c>
@@ -4395,19 +4055,16 @@
         <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D110" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E110" t="s">
-        <v>498</v>
-      </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>163</v>
       </c>
@@ -4415,19 +4072,16 @@
         <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E111" t="s">
-        <v>498</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>164</v>
       </c>
@@ -4435,19 +4089,16 @@
         <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E112" t="s">
-        <v>498</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>165</v>
       </c>
@@ -4455,19 +4106,16 @@
         <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D113" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E113" t="s">
-        <v>498</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>166</v>
       </c>
@@ -4475,19 +4123,16 @@
         <v>166</v>
       </c>
       <c r="C114" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D114" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E114" t="s">
-        <v>498</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>167</v>
       </c>
@@ -4495,19 +4140,16 @@
         <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D115" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E115" t="s">
-        <v>498</v>
-      </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>168</v>
       </c>
@@ -4515,19 +4157,16 @@
         <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E116" t="s">
-        <v>498</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>169</v>
       </c>
@@ -4535,19 +4174,16 @@
         <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D117" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E117" t="s">
-        <v>498</v>
-      </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>170</v>
       </c>
@@ -4555,19 +4191,16 @@
         <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E118" t="s">
-        <v>498</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>171</v>
       </c>
@@ -4575,19 +4208,16 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D119" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E119" t="s">
-        <v>498</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>172</v>
       </c>
@@ -4595,19 +4225,16 @@
         <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D120" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E120" t="s">
-        <v>498</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>173</v>
       </c>
@@ -4615,19 +4242,16 @@
         <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E121" t="s">
-        <v>498</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>174</v>
       </c>
@@ -4635,19 +4259,16 @@
         <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D122" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E122" t="s">
-        <v>498</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>175</v>
       </c>
@@ -4655,19 +4276,16 @@
         <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E123" t="s">
-        <v>498</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>176</v>
       </c>
@@ -4675,19 +4293,16 @@
         <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D124" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>177</v>
       </c>
@@ -4695,19 +4310,16 @@
         <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D125" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E125" t="s">
-        <v>498</v>
-      </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>178</v>
       </c>
@@ -4715,19 +4327,16 @@
         <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D126" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E126" t="s">
-        <v>498</v>
-      </c>
-      <c r="F126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>179</v>
       </c>
@@ -4735,19 +4344,16 @@
         <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D127" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E127" t="s">
-        <v>498</v>
-      </c>
-      <c r="F127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>180</v>
       </c>
@@ -4755,19 +4361,16 @@
         <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D128" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E128" t="s">
-        <v>498</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>181</v>
       </c>
@@ -4775,19 +4378,16 @@
         <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D129" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E129" t="s">
-        <v>498</v>
-      </c>
-      <c r="F129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>182</v>
       </c>
@@ -4795,19 +4395,16 @@
         <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D130" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E130" t="s">
-        <v>498</v>
-      </c>
-      <c r="F130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>183</v>
       </c>
@@ -4815,19 +4412,16 @@
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D131" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E131" t="s">
-        <v>498</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>184</v>
       </c>
@@ -4835,19 +4429,16 @@
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D132" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E132" t="s">
-        <v>498</v>
-      </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>185</v>
       </c>
@@ -4855,19 +4446,16 @@
         <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D133" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E133" t="s">
-        <v>498</v>
-      </c>
-      <c r="F133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>186</v>
       </c>
@@ -4875,19 +4463,16 @@
         <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D134" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E134" t="s">
-        <v>498</v>
-      </c>
-      <c r="F134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>187</v>
       </c>
@@ -4895,19 +4480,16 @@
         <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D135" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E135" t="s">
-        <v>498</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>188</v>
       </c>
@@ -4915,19 +4497,16 @@
         <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E136" t="s">
-        <v>498</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>189</v>
       </c>
@@ -4935,19 +4514,16 @@
         <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D137" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E137" t="s">
-        <v>498</v>
-      </c>
-      <c r="F137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>190</v>
       </c>
@@ -4955,19 +4531,16 @@
         <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D138" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E138" t="s">
-        <v>498</v>
-      </c>
-      <c r="F138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>191</v>
       </c>
@@ -4975,19 +4548,16 @@
         <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D139" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E139" t="s">
-        <v>498</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>192</v>
       </c>
@@ -4995,19 +4565,16 @@
         <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D140" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E140" t="s">
-        <v>498</v>
-      </c>
-      <c r="F140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>193</v>
       </c>
@@ -5015,19 +4582,16 @@
         <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D141" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E141" t="s">
-        <v>498</v>
-      </c>
-      <c r="F141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>194</v>
       </c>
@@ -5035,19 +4599,16 @@
         <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D142" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E142" t="s">
-        <v>498</v>
-      </c>
-      <c r="F142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>195</v>
       </c>
@@ -5055,19 +4616,16 @@
         <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D143" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E143" t="s">
-        <v>498</v>
-      </c>
-      <c r="F143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>196</v>
       </c>
@@ -5075,19 +4633,16 @@
         <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D144" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E144" t="s">
-        <v>498</v>
-      </c>
-      <c r="F144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>197</v>
       </c>
@@ -5095,19 +4650,16 @@
         <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D145" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E145" t="s">
-        <v>498</v>
-      </c>
-      <c r="F145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>198</v>
       </c>
@@ -5115,19 +4667,16 @@
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E146" t="s">
-        <v>498</v>
-      </c>
-      <c r="F146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>199</v>
       </c>
@@ -5135,19 +4684,16 @@
         <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D147" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E147" t="s">
-        <v>498</v>
-      </c>
-      <c r="F147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>200</v>
       </c>
@@ -5155,19 +4701,16 @@
         <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E148" t="s">
-        <v>498</v>
-      </c>
-      <c r="F148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>201</v>
       </c>
@@ -5175,19 +4718,16 @@
         <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D149" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E149" t="s">
-        <v>498</v>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>202</v>
       </c>
@@ -5195,19 +4735,16 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D150" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E150" t="s">
-        <v>498</v>
-      </c>
-      <c r="F150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>203</v>
       </c>
@@ -5215,19 +4752,16 @@
         <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E151" t="s">
-        <v>498</v>
-      </c>
-      <c r="F151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>204</v>
       </c>
@@ -5235,19 +4769,16 @@
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E152" t="s">
-        <v>498</v>
-      </c>
-      <c r="F152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>205</v>
       </c>
@@ -5255,19 +4786,16 @@
         <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D153" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E153" t="s">
-        <v>498</v>
-      </c>
-      <c r="F153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>206</v>
       </c>
@@ -5275,19 +4803,16 @@
         <v>206</v>
       </c>
       <c r="C154" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D154" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E154" t="s">
-        <v>498</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>207</v>
       </c>
@@ -5295,19 +4820,16 @@
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D155" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E155" t="s">
-        <v>498</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>208</v>
       </c>
@@ -5315,19 +4837,16 @@
         <v>208</v>
       </c>
       <c r="C156" t="s">
+        <v>490</v>
+      </c>
+      <c r="D156" t="s">
         <v>492</v>
       </c>
-      <c r="D156" t="s">
-        <v>494</v>
-      </c>
       <c r="E156" t="s">
-        <v>498</v>
-      </c>
-      <c r="F156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>209</v>
       </c>
@@ -5335,16 +4854,13 @@
         <v>209</v>
       </c>
       <c r="C157" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D157" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E157" t="s">
-        <v>498</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5354,53 +4870,40 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.83203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="46.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
@@ -5408,19 +4911,13 @@
         <v>44355</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
@@ -5428,19 +4925,13 @@
         <v>44488</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
@@ -5448,13 +4939,10 @@
         <v>44034</v>
       </c>
       <c r="D4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
+        <v>497</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5464,7 +4952,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5478,21 +4966,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -5501,105 +4989,63 @@
         <v>38</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>498</v>
+        <v>330</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>500</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>527</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="15">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -9054,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -22720,7 +22166,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22768,13 +22214,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -22785,13 +22231,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22802,13 +22248,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22823,7 +22269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22838,25 +22286,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22867,10 +22315,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -22887,10 +22335,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -22907,10 +22355,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -22927,10 +22375,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -22947,10 +22395,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -22959,7 +22407,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22967,10 +22415,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -22979,7 +22427,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22987,10 +22435,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -22999,7 +22447,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -23007,10 +22455,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -23019,7 +22467,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -23027,10 +22475,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -23039,7 +22487,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -23047,10 +22495,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -23059,7 +22507,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -23089,16 +22537,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -23111,195 +22559,195 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
         <v>277</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
         <v>281</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>283</v>
-      </c>
-      <c r="D3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
         <v>285</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" t="s">
         <v>288</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>289</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>290</v>
-      </c>
-      <c r="D5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
         <v>292</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>293</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>294</v>
-      </c>
-      <c r="D6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
         <v>296</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>297</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>298</v>
-      </c>
-      <c r="D7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
         <v>300</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>301</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>302</v>
-      </c>
-      <c r="D8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" t="s">
         <v>304</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>305</v>
-      </c>
-      <c r="D9" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
         <v>307</v>
-      </c>
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
         <v>309</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>310</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>311</v>
-      </c>
-      <c r="D11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>314</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>315</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
         <v>317</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>318</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>319</v>
-      </c>
-      <c r="D13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
         <v>321</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>322</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>323</v>
-      </c>
-      <c r="D14" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
         <v>325</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>326</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>327</v>
-      </c>
-      <c r="D15" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -23312,7 +22760,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23324,37 +22772,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>495</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6659D49-9E27-C947-AF06-081E76E76119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1199DB-852F-1D41-A247-92F3E8C0DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="529">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1631,6 +1631,9 @@
   </si>
   <si>
     <t>The default LC Protocol when not explicitly set in the MS Runs tab</t>
+  </si>
+  <si>
+    <t>Tracer</t>
   </si>
 </sst>
 </file>
@@ -22142,8 +22145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22165,8 +22168,8 @@
       <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>510</v>
+      <c r="D1" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22269,8 +22272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22303,7 +22306,7 @@
       <c r="F1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>510</v>
       </c>
       <c r="H1" s="1"/>

--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1199DB-852F-1D41-A247-92F3E8C0DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19BBE8-2D6D-584C-8290-EA524E833493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId9"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId10"/>
-    <sheet name="MS Runs" sheetId="10" r:id="rId11"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId11"/>
     <sheet name="Defaults" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1624,16 +1624,16 @@
     <t>MS Run Name</t>
   </si>
   <si>
-    <t>MS Runs</t>
-  </si>
-  <si>
-    <t>The default date when not explicitly set in the MS Runs tab</t>
-  </si>
-  <si>
-    <t>The default LC Protocol when not explicitly set in the MS Runs tab</t>
-  </si>
-  <si>
     <t>Tracer</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>The default LC Protocol when not explicitly set in the Sequences tab</t>
+  </si>
+  <si>
+    <t>The default date when not explicitly set in the Sequences tab</t>
   </si>
 </sst>
 </file>
@@ -4957,7 +4957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4997,7 +4999,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>331</v>
@@ -5025,7 +5027,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5034,12 +5036,12 @@
         <v>500</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>335</v>
@@ -22145,7 +22147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -22169,7 +22171,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>

--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19BBE8-2D6D-584C-8290-EA524E833493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19548DF-0133-EF4D-B05F-FE00ACA5439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1612,9 +1612,6 @@
     <t>Peak Annotation Files</t>
   </si>
   <si>
-    <t>Default MS Run</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
@@ -1634,6 +1631,9 @@
   </si>
   <si>
     <t>The default date when not explicitly set in the Sequences tab</t>
+  </si>
+  <si>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2210,7 @@
         <v>498</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L1" s="14"/>
     </row>
@@ -4888,7 +4888,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -4917,7 +4917,7 @@
         <v>497</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>497</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
         <v>497</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>331</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5036,21 +5036,21 @@
         <v>500</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -22171,7 +22171,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22764,7 +22764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -22783,7 +22783,7 @@
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19548DF-0133-EF4D-B05F-FE00ACA5439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D9688F-0EBA-F84F-BAEB-B6F46956F5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1618,9 +1618,6 @@
     <t>polar-HILIC-25-min</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
@@ -1634,6 +1631,9 @@
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -4875,7 +4875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4888,7 +4890,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -4999,7 +5001,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>331</v>
@@ -5027,7 +5029,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5036,12 +5038,12 @@
         <v>500</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>335</v>
@@ -5050,7 +5052,7 @@
         <v>522</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -22171,7 +22173,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22764,7 +22766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -22783,7 +22785,7 @@
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/small_obob/small_obob_study.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D9688F-0EBA-F84F-BAEB-B6F46956F5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DD44E7-B15B-B64E-BA4B-CB40097D1291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3480" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1612,9 +1612,6 @@
     <t>Peak Annotation Files</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>polar-HILIC-25-min</t>
   </si>
   <si>
@@ -1634,6 +1631,9 @@
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2210,7 +2210,7 @@
         <v>498</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="L1" s="14"/>
     </row>
@@ -4875,7 +4875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4890,7 +4890,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -4919,7 +4919,7 @@
         <v>497</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -4933,7 +4933,7 @@
         <v>497</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -4947,7 +4947,7 @@
         <v>497</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>331</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>330</v>
@@ -5038,21 +5038,21 @@
         <v>500</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -22173,7 +22173,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22785,7 +22785,7 @@
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
